--- a/TabelAdejective.xlsx
+++ b/TabelAdejective.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t xml:space="preserve">-u</t>
   </si>
@@ -30,6 +30,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -39,6 +40,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -47,6 +49,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">consoana</t>
     </r>
@@ -56,6 +59,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -117,6 +121,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -126,6 +131,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -134,6 +140,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">consoana velară</t>
     </r>
@@ -143,6 +150,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -159,6 +167,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-u</t>
     </r>
@@ -168,6 +177,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -176,6 +186,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">vocalic</t>
     </r>
@@ -185,6 +196,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -255,6 +267,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-eu</t>
     </r>
@@ -264,6 +277,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -272,6 +286,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">neologisme</t>
     </r>
@@ -281,6 +296,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -339,6 +355,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -348,6 +365,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -356,6 +374,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">consoană palatală</t>
     </r>
@@ -365,6 +384,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -390,6 +410,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-e</t>
     </r>
@@ -399,6 +420,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -407,6 +429,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">neologisme</t>
     </r>
@@ -416,6 +439,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -430,7 +454,53 @@
     <t xml:space="preserve">-i (semivocalic în -ai -ei și -oi)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">consoana velară africată c</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bălai</t>
+  </si>
+  <si>
     <t xml:space="preserve">dibaci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bălaie</t>
   </si>
   <si>
     <t xml:space="preserve">dibace</t>
@@ -454,6 +524,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -475,6 +546,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -483,12 +555,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -518,6 +584,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -567,7 +639,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -576,11 +648,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,27 +688,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -692,7 +784,7 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -700,8 +792,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="11.52"/>
   </cols>
@@ -841,7 +933,7 @@
       <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -852,10 +944,10 @@
       <c r="A12" s="3" t="n">
         <v>3.1</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -876,10 +968,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -900,7 +992,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -924,7 +1016,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -951,7 +1043,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -993,7 +1085,7 @@
       <c r="F21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1062,7 +1154,7 @@
       <c r="B26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1102,7 +1194,7 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="10"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1138,7 +1230,7 @@
       <c r="A32" s="3" t="n">
         <v>2.1</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1150,25 +1242,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
-      <c r="B33" s="9"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
-      <c r="B35" s="9"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
-      <c r="B36" s="9"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="7" t="s">
         <v>8</v>
       </c>
@@ -1179,21 +1271,21 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
-      <c r="B37" s="9"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="G37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="G38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
-      <c r="B39" s="9"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="G39" s="0"/>
@@ -1255,7 +1347,7 @@
       <c r="B46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="6"/>
@@ -1264,21 +1356,21 @@
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="9"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="9"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
@@ -1297,7 +1389,7 @@
       <c r="B52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -1307,7 +1399,7 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -1316,42 +1408,42 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="10"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="10"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="10"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,19 +1453,25 @@
       <c r="D61" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E61" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
         <v>2.4</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,12 +1479,14 @@
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,6 +1494,7 @@
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1504,10 @@
         <v>12</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="F66" s="0"/>
     </row>
@@ -1412,6 +1516,7 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,31 +1524,33 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="9"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1455,13 +1562,13 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="9"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="9"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,7 +1590,7 @@
       <c r="D79" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="76">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C3"/>
@@ -1552,8 +1659,10 @@
     <mergeCell ref="B62:B69"/>
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="B72:B79"/>
     <mergeCell ref="C72:C79"/>
